--- a/Code/Results/Cases/Case_5_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.119320935305097</v>
+        <v>0.868554723999523</v>
       </c>
       <c r="C2">
-        <v>0.417109858636735</v>
+        <v>0.2230895546694285</v>
       </c>
       <c r="D2">
-        <v>0.04424250299845056</v>
+        <v>0.02541487974600187</v>
       </c>
       <c r="E2">
-        <v>0.04049465455705148</v>
+        <v>0.109308266228282</v>
       </c>
       <c r="F2">
-        <v>0.5566330387721763</v>
+        <v>0.7337237621416648</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.290854209985536</v>
+        <v>0.6503881080935194</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1611209155873183</v>
+        <v>0.2035184872961509</v>
       </c>
       <c r="M2">
-        <v>0.3706063034520852</v>
+        <v>0.2039161632909838</v>
       </c>
       <c r="N2">
-        <v>0.7377931196995888</v>
+        <v>1.278446630484588</v>
       </c>
       <c r="O2">
-        <v>1.600027315575943</v>
+        <v>2.510429043626402</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.842413038649937</v>
+        <v>0.7866008231924866</v>
       </c>
       <c r="C3">
-        <v>0.3765985541871828</v>
+        <v>0.2096252353765067</v>
       </c>
       <c r="D3">
-        <v>0.03996560277219174</v>
+        <v>0.02394862812467125</v>
       </c>
       <c r="E3">
-        <v>0.04184083559636864</v>
+        <v>0.110214494987166</v>
       </c>
       <c r="F3">
-        <v>0.5130226769571635</v>
+        <v>0.7287116675615692</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2893681601007678</v>
+        <v>0.6558186271010022</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1462115655354523</v>
+        <v>0.200750244957085</v>
       </c>
       <c r="M3">
-        <v>0.3230382554543709</v>
+        <v>0.1906489805552596</v>
       </c>
       <c r="N3">
-        <v>0.7612407984660905</v>
+        <v>1.289411023549775</v>
       </c>
       <c r="O3">
-        <v>1.503209613821895</v>
+        <v>2.507811326002042</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.672664154023124</v>
+        <v>0.7363698976323292</v>
       </c>
       <c r="C4">
-        <v>0.3516727049492658</v>
+        <v>0.2012869645223532</v>
       </c>
       <c r="D4">
-        <v>0.03733060621821949</v>
+        <v>0.0230406219891961</v>
       </c>
       <c r="E4">
-        <v>0.04271407091533486</v>
+        <v>0.1108039141966617</v>
       </c>
       <c r="F4">
-        <v>0.4873019451399898</v>
+        <v>0.7261286202203507</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2891900193337413</v>
+        <v>0.6595363778698058</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.13723288501442</v>
+        <v>0.199151163346535</v>
       </c>
       <c r="M4">
-        <v>0.2939521867636969</v>
+        <v>0.1825620133722765</v>
       </c>
       <c r="N4">
-        <v>0.7766196201306528</v>
+        <v>1.296623658830093</v>
       </c>
       <c r="O4">
-        <v>1.447181027534242</v>
+        <v>2.507846823385449</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.603537437485528</v>
+        <v>0.7159241101786051</v>
       </c>
       <c r="C5">
-        <v>0.3414995028371095</v>
+        <v>0.1978713240490748</v>
       </c>
       <c r="D5">
-        <v>0.03625440155259696</v>
+        <v>0.02266868007409073</v>
       </c>
       <c r="E5">
-        <v>0.04308150721207205</v>
+        <v>0.1110524143337162</v>
       </c>
       <c r="F5">
-        <v>0.4770697200608822</v>
+        <v>0.7252002856644708</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.289293817918967</v>
+        <v>0.661147744388888</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1336153852072073</v>
+        <v>0.1985248895985805</v>
       </c>
       <c r="M5">
-        <v>0.2821252447594773</v>
+        <v>0.1792815925659355</v>
       </c>
       <c r="N5">
-        <v>0.7831267288295791</v>
+        <v>1.299683767271183</v>
       </c>
       <c r="O5">
-        <v>1.42515895784291</v>
+        <v>2.508274158580292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.592061253633119</v>
+        <v>0.7125305743480794</v>
       </c>
       <c r="C6">
-        <v>0.3398092255135339</v>
+        <v>0.1973030934987179</v>
       </c>
       <c r="D6">
-        <v>0.03607554757544307</v>
+        <v>0.02260680389476022</v>
       </c>
       <c r="E6">
-        <v>0.04314321516471509</v>
+        <v>0.1110941796437026</v>
       </c>
       <c r="F6">
-        <v>0.4753852518537656</v>
+        <v>0.7250536412816899</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2893214730961589</v>
+        <v>0.6614211284806792</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1330171223902283</v>
+        <v>0.1984224310903286</v>
       </c>
       <c r="M6">
-        <v>0.2801628245699064</v>
+        <v>0.178737798518398</v>
       </c>
       <c r="N6">
-        <v>0.7842215397266727</v>
+        <v>1.300199200698508</v>
       </c>
       <c r="O6">
-        <v>1.421549734030492</v>
+        <v>2.508370047095752</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.671731722794704</v>
+        <v>0.7360940607948976</v>
       </c>
       <c r="C7">
-        <v>0.3515355726692064</v>
+        <v>0.2012409715687369</v>
       </c>
       <c r="D7">
-        <v>0.03731610216826908</v>
+        <v>0.02303561360681528</v>
       </c>
       <c r="E7">
-        <v>0.04271897957469362</v>
+        <v>0.1108072319066045</v>
       </c>
       <c r="F7">
-        <v>0.4871629619655522</v>
+        <v>0.7261155972353777</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2891907156219879</v>
+        <v>0.6595577192648321</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1371839341819836</v>
+        <v>0.1991426144173829</v>
       </c>
       <c r="M7">
-        <v>0.2937925855658676</v>
+        <v>0.182517711112304</v>
       </c>
       <c r="N7">
-        <v>0.7767064137705191</v>
+        <v>1.296664438882374</v>
       </c>
       <c r="O7">
-        <v>1.446880813986667</v>
+        <v>2.507850915182161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.023772883741856</v>
+        <v>0.8402792903085015</v>
       </c>
       <c r="C8">
-        <v>0.4031506053832459</v>
+        <v>0.2184619098920848</v>
       </c>
       <c r="D8">
-        <v>0.04276958207473314</v>
+        <v>0.02491093020729096</v>
       </c>
       <c r="E8">
-        <v>0.04094903828456031</v>
+        <v>0.1096138933733015</v>
       </c>
       <c r="F8">
-        <v>0.5413668369923599</v>
+        <v>0.7318929501761033</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2901843291214483</v>
+        <v>0.652180945883778</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1559419681829652</v>
+        <v>0.2025431465323422</v>
       </c>
       <c r="M8">
-        <v>0.354176924943701</v>
+        <v>0.1993294885757209</v>
       </c>
       <c r="N8">
-        <v>0.7456699134721347</v>
+        <v>1.282127486823967</v>
       </c>
       <c r="O8">
-        <v>1.565904677273181</v>
+        <v>2.509185352070716</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.717362151004068</v>
+        <v>1.045245462869218</v>
       </c>
       <c r="C9">
-        <v>0.5040928720742954</v>
+        <v>0.2516623280739623</v>
       </c>
       <c r="D9">
-        <v>0.05340135367830356</v>
+        <v>0.02852644670915794</v>
       </c>
       <c r="E9">
-        <v>0.03785549137124766</v>
+        <v>0.1075350074939019</v>
       </c>
       <c r="F9">
-        <v>0.6568258718545081</v>
+        <v>0.7471488321144477</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2983510096995374</v>
+        <v>0.6407597876439617</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1942556875863417</v>
+        <v>0.2100079451872432</v>
       </c>
       <c r="M9">
-        <v>0.473772683790763</v>
+        <v>0.232758920931019</v>
       </c>
       <c r="N9">
-        <v>0.6929191283974561</v>
+        <v>1.257428932265874</v>
       </c>
       <c r="O9">
-        <v>1.82879083389227</v>
+        <v>2.524851093627717</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.23054560259817</v>
+        <v>1.196186840197299</v>
       </c>
       <c r="C10">
-        <v>0.5782981748348845</v>
+        <v>0.2757021534020225</v>
       </c>
       <c r="D10">
-        <v>0.06118794716169873</v>
+        <v>0.03114427024932809</v>
       </c>
       <c r="E10">
-        <v>0.03582258908117941</v>
+        <v>0.1061661635196636</v>
       </c>
       <c r="F10">
-        <v>0.7484021956844202</v>
+        <v>0.7607586634862429</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3087175185646984</v>
+        <v>0.6342287566908027</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2235380823843087</v>
+        <v>0.2159758550654374</v>
       </c>
       <c r="M10">
-        <v>0.5626983794021143</v>
+        <v>0.2575932380129018</v>
       </c>
       <c r="N10">
-        <v>0.6595782776245755</v>
+        <v>1.241599453196422</v>
       </c>
       <c r="O10">
-        <v>2.043396599101698</v>
+        <v>2.544341185788795</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.465181315159612</v>
+        <v>1.264921059430606</v>
       </c>
       <c r="C11">
-        <v>0.6121168380574034</v>
+        <v>0.286560978408005</v>
       </c>
       <c r="D11">
-        <v>0.06472820028812265</v>
+        <v>0.03232668827934049</v>
       </c>
       <c r="E11">
-        <v>0.03495215382003236</v>
+        <v>0.1055777004257195</v>
       </c>
       <c r="F11">
-        <v>0.7918037801488111</v>
+        <v>0.7674733401018301</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3145179454490048</v>
+        <v>0.631662408623292</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2371532302566521</v>
+        <v>0.2187954406617791</v>
       </c>
       <c r="M11">
-        <v>0.6034639527299177</v>
+        <v>0.2689489737203345</v>
       </c>
       <c r="N11">
-        <v>0.645697879005958</v>
+        <v>1.23490022420436</v>
       </c>
       <c r="O11">
-        <v>2.146516859849953</v>
+        <v>2.554946461127315</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.55423663064613</v>
+        <v>1.290957879754217</v>
       </c>
       <c r="C12">
-        <v>0.6249365744232875</v>
+        <v>0.2906617261313045</v>
       </c>
       <c r="D12">
-        <v>0.06606880384557456</v>
+        <v>0.03277320792176397</v>
       </c>
       <c r="E12">
-        <v>0.03463056118384422</v>
+        <v>0.1053597756810354</v>
       </c>
       <c r="F12">
-        <v>0.8085140299411648</v>
+        <v>0.7700913820657149</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3168825781758287</v>
+        <v>0.630748857932744</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2423554825996348</v>
+        <v>0.2198781590974477</v>
       </c>
       <c r="M12">
-        <v>0.6189529053801266</v>
+        <v>0.2732573227626105</v>
       </c>
       <c r="N12">
-        <v>0.6406367724390165</v>
+        <v>1.232435478975688</v>
       </c>
       <c r="O12">
-        <v>2.186430115481755</v>
+        <v>2.559212844790693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.535047349976878</v>
+        <v>1.285350022180467</v>
       </c>
       <c r="C13">
-        <v>0.6221749475091372</v>
+        <v>0.2897790601004999</v>
       </c>
       <c r="D13">
-        <v>0.06578007711616607</v>
+        <v>0.03267709727235513</v>
       </c>
       <c r="E13">
-        <v>0.03469946169303295</v>
+        <v>0.1054064912877699</v>
       </c>
       <c r="F13">
-        <v>0.8049025411886674</v>
+        <v>0.7695241881705073</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3163656316390373</v>
+        <v>0.630943014569695</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2412329475898787</v>
+        <v>0.2196443100371823</v>
       </c>
       <c r="M13">
-        <v>0.6156146574602701</v>
+        <v>0.2723290826513747</v>
       </c>
       <c r="N13">
-        <v>0.641717927258135</v>
+        <v>1.232963099458026</v>
       </c>
       <c r="O13">
-        <v>2.177794432549746</v>
+        <v>2.558282861389756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.472503663798307</v>
+        <v>1.2670629589025</v>
       </c>
       <c r="C14">
-        <v>0.613171231608618</v>
+        <v>0.2868985759581335</v>
       </c>
       <c r="D14">
-        <v>0.06483849125502417</v>
+        <v>0.03236344862622076</v>
       </c>
       <c r="E14">
-        <v>0.0349255341923822</v>
+        <v>0.1055596732035537</v>
       </c>
       <c r="F14">
-        <v>0.7931728851743856</v>
+        <v>0.7676872177237328</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3147090428430559</v>
+        <v>0.6315860819830732</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.237580266133179</v>
+        <v>0.2188842162344287</v>
       </c>
       <c r="M14">
-        <v>0.6047371561937922</v>
+        <v>0.2693032616048328</v>
       </c>
       <c r="N14">
-        <v>0.6452775284231862</v>
+        <v>1.234696003169667</v>
       </c>
       <c r="O14">
-        <v>2.149782793920707</v>
+        <v>2.555292439001533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.43422143188576</v>
+        <v>1.255862690243362</v>
       </c>
       <c r="C15">
-        <v>0.607658069834514</v>
+        <v>0.2851327253683564</v>
       </c>
       <c r="D15">
-        <v>0.06426174905168125</v>
+        <v>0.0321711680962764</v>
       </c>
       <c r="E15">
-        <v>0.03506506121963815</v>
+        <v>0.1056541411641403</v>
       </c>
       <c r="F15">
-        <v>0.7860246989580162</v>
+        <v>0.7665718335318275</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3137166059898675</v>
+        <v>0.6319875701771807</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2353490758956838</v>
+        <v>0.2184205888016493</v>
       </c>
       <c r="M15">
-        <v>0.5980813479252092</v>
+        <v>0.2674509170577295</v>
       </c>
       <c r="N15">
-        <v>0.6474836056741111</v>
+        <v>1.235766846310753</v>
       </c>
       <c r="O15">
-        <v>2.132739630870987</v>
+        <v>2.553493337063315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.215238262518426</v>
+        <v>1.191696187753791</v>
       </c>
       <c r="C16">
-        <v>0.5760896654920202</v>
+        <v>0.2749909386332092</v>
       </c>
       <c r="D16">
-        <v>0.06095656676148309</v>
+        <v>0.03106682464795796</v>
       </c>
       <c r="E16">
-        <v>0.03588058511602377</v>
+        <v>0.1062053090173367</v>
       </c>
       <c r="F16">
-        <v>0.7456029190757505</v>
+        <v>0.7603303829543506</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3083612942693676</v>
+        <v>0.6344046231387281</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2226545737660075</v>
+        <v>0.2157936912236238</v>
       </c>
       <c r="M16">
-        <v>0.5600411290278018</v>
+        <v>0.2568522710005468</v>
       </c>
       <c r="N16">
-        <v>0.660512130727831</v>
+        <v>1.242047355693195</v>
       </c>
       <c r="O16">
-        <v>2.036774202107296</v>
+        <v>2.54368312856522</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.08122585466441</v>
+        <v>1.152349082234025</v>
       </c>
       <c r="C17">
-        <v>0.556742430371628</v>
+        <v>0.2687494286350045</v>
       </c>
       <c r="D17">
-        <v>0.05892863539869353</v>
+        <v>0.03038716738265634</v>
       </c>
       <c r="E17">
-        <v>0.03639494565300883</v>
+        <v>0.1065521936406091</v>
       </c>
       <c r="F17">
-        <v>0.7212687137615319</v>
+        <v>0.7566355793734374</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3053621892736551</v>
+        <v>0.6359911055545311</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2149451864486593</v>
+        <v>0.2142089612491276</v>
       </c>
       <c r="M17">
-        <v>0.5367895812735384</v>
+        <v>0.2503651587297782</v>
       </c>
       <c r="N17">
-        <v>0.6688411976565121</v>
+        <v>1.246028711977097</v>
       </c>
       <c r="O17">
-        <v>1.979360740307129</v>
+        <v>2.538110539547205</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.004254950715278</v>
+        <v>1.129724363879916</v>
       </c>
       <c r="C18">
-        <v>0.5456199921585778</v>
+        <v>0.2651522391388994</v>
       </c>
       <c r="D18">
-        <v>0.05776202662981689</v>
+        <v>0.02999545313528529</v>
       </c>
       <c r="E18">
-        <v>0.03669589412204122</v>
+        <v>0.1067549350036607</v>
       </c>
       <c r="F18">
-        <v>0.7074348317298274</v>
+        <v>0.7545596964181556</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3037385003614901</v>
+        <v>0.6369416910655836</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2105383999813171</v>
+        <v>0.2133073300192905</v>
       </c>
       <c r="M18">
-        <v>0.5234449063834319</v>
+        <v>0.2466394615732526</v>
       </c>
       <c r="N18">
-        <v>0.6737523073600116</v>
+        <v>1.248365905097586</v>
       </c>
       <c r="O18">
-        <v>1.946850546294428</v>
+        <v>2.535069010940475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.978211755827772</v>
+        <v>1.122065216821341</v>
       </c>
       <c r="C19">
-        <v>0.5418549565008277</v>
+        <v>0.2639330549136218</v>
       </c>
       <c r="D19">
-        <v>0.05736699160542713</v>
+        <v>0.02986268984016505</v>
       </c>
       <c r="E19">
-        <v>0.03679866018991573</v>
+        <v>0.1068241334857567</v>
       </c>
       <c r="F19">
-        <v>0.7027781129989563</v>
+        <v>0.7538652984473799</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3032057910459223</v>
+        <v>0.6372700812599987</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2090509303123014</v>
+        <v>0.2130037491013752</v>
       </c>
       <c r="M19">
-        <v>0.5189314067057467</v>
+        <v>0.2453789593374651</v>
       </c>
       <c r="N19">
-        <v>0.6754355151911398</v>
+        <v>1.249165350095545</v>
       </c>
       <c r="O19">
-        <v>1.935929015862257</v>
+        <v>2.534067303822553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.095480139324309</v>
+        <v>1.156536966175679</v>
       </c>
       <c r="C20">
-        <v>0.5588013685354838</v>
+        <v>0.2694145984398801</v>
       </c>
       <c r="D20">
-        <v>0.05914453064200842</v>
+        <v>0.03045960033050932</v>
       </c>
       <c r="E20">
-        <v>0.03633966159623236</v>
+        <v>0.1065149337281905</v>
       </c>
       <c r="F20">
-        <v>0.7238421412494489</v>
+        <v>0.7570237977754317</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3056708776830419</v>
+        <v>0.6358182797765366</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2157629938281076</v>
+        <v>0.2143766380621912</v>
       </c>
       <c r="M20">
-        <v>0.539261698216599</v>
+        <v>0.2510551534617491</v>
       </c>
       <c r="N20">
-        <v>0.6679420170146955</v>
+        <v>1.245600002728906</v>
       </c>
       <c r="O20">
-        <v>1.985418941131428</v>
+        <v>2.538686808921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.490868449362154</v>
+        <v>1.272434088987893</v>
       </c>
       <c r="C21">
-        <v>0.6158154422740267</v>
+        <v>0.2877449508236225</v>
       </c>
       <c r="D21">
-        <v>0.06511505603496914</v>
+        <v>0.03245560857021701</v>
       </c>
       <c r="E21">
-        <v>0.03485891178614287</v>
+        <v>0.1055145466824579</v>
       </c>
       <c r="F21">
-        <v>0.7966105030861002</v>
+        <v>0.7682247352931455</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3151909588515522</v>
+        <v>0.6313956154276283</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2386518509504896</v>
+        <v>0.2191070675295066</v>
       </c>
       <c r="M21">
-        <v>0.6079306752308611</v>
+        <v>0.2701917984747695</v>
       </c>
       <c r="N21">
-        <v>0.6442266085434909</v>
+        <v>1.234185050617974</v>
       </c>
       <c r="O21">
-        <v>2.157986433399941</v>
+        <v>2.556164000409353</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.750483188917201</v>
+        <v>1.348229389395158</v>
       </c>
       <c r="C22">
-        <v>0.6531575206321349</v>
+        <v>0.2996592177676121</v>
       </c>
       <c r="D22">
-        <v>0.0690171965511297</v>
+        <v>0.03375289826920636</v>
       </c>
       <c r="E22">
-        <v>0.03393802057471929</v>
+        <v>0.1048893712229622</v>
       </c>
       <c r="F22">
-        <v>0.8457843733506678</v>
+        <v>0.7759843601248235</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3223991693924546</v>
+        <v>0.6288448261447783</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2538841656765243</v>
+        <v>0.222286094750217</v>
       </c>
       <c r="M22">
-        <v>0.6531160160874734</v>
+        <v>0.282746264992241</v>
       </c>
       <c r="N22">
-        <v>0.6298695789483659</v>
+        <v>1.227145003812211</v>
       </c>
       <c r="O22">
-        <v>2.275842479247274</v>
+        <v>2.56904599706175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.611799910784271</v>
+        <v>1.307771925502948</v>
       </c>
       <c r="C23">
-        <v>0.6332184732042094</v>
+        <v>0.2933064180544136</v>
       </c>
       <c r="D23">
-        <v>0.0669344540857324</v>
+        <v>0.03306117807768771</v>
       </c>
       <c r="E23">
-        <v>0.03442515793845091</v>
+        <v>0.1052204219239301</v>
       </c>
       <c r="F23">
-        <v>0.8193830288927444</v>
+        <v>0.7718026987781172</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3184575263653144</v>
+        <v>0.6301751230646175</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2457279543821329</v>
+        <v>0.2205814094639464</v>
       </c>
       <c r="M23">
-        <v>0.628969305436577</v>
+        <v>0.2760414342385431</v>
       </c>
       <c r="N23">
-        <v>0.6374241568427763</v>
+        <v>1.230863963343104</v>
       </c>
       <c r="O23">
-        <v>2.212450561707158</v>
+        <v>2.562036973912967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.089035547310004</v>
+        <v>1.154643634773265</v>
       </c>
       <c r="C24">
-        <v>0.5578705212207069</v>
+        <v>0.2691139027631664</v>
       </c>
       <c r="D24">
-        <v>0.05904692667687073</v>
+        <v>0.0304268564146426</v>
       </c>
       <c r="E24">
-        <v>0.03636463922573974</v>
+        <v>0.1065317686150977</v>
       </c>
       <c r="F24">
-        <v>0.7226782100484286</v>
+        <v>0.756848133761693</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3055310074146149</v>
+        <v>0.6358962944045921</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2153931841730241</v>
+        <v>0.2143008019317705</v>
       </c>
       <c r="M24">
-        <v>0.5381439831813424</v>
+        <v>0.2507431948957617</v>
       </c>
       <c r="N24">
-        <v>0.6683481554107331</v>
+        <v>1.245793671854045</v>
       </c>
       <c r="O24">
-        <v>1.982678484228558</v>
+        <v>2.538425772231363</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.52921982754242</v>
+        <v>0.9897311952613563</v>
       </c>
       <c r="C25">
-        <v>0.4767939722023016</v>
+        <v>0.2427422693873211</v>
       </c>
       <c r="D25">
-        <v>0.05053052577373762</v>
+        <v>0.02755506235203597</v>
       </c>
       <c r="E25">
-        <v>0.03865098951318213</v>
+        <v>0.1080695106551994</v>
       </c>
       <c r="F25">
-        <v>0.6244944332096054</v>
+        <v>0.7426005586038187</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2954187034829694</v>
+        <v>0.6435231486489705</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.183707087374593</v>
+        <v>0.2079034657320875</v>
       </c>
       <c r="M25">
-        <v>0.4412587663603205</v>
+        <v>0.2236667525887981</v>
       </c>
       <c r="N25">
-        <v>0.7062744783486963</v>
+        <v>1.263703380562539</v>
       </c>
       <c r="O25">
-        <v>1.754169989527128</v>
+        <v>2.519213474105385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.868554723999523</v>
+        <v>2.119320935305097</v>
       </c>
       <c r="C2">
-        <v>0.2230895546694285</v>
+        <v>0.4171098586367634</v>
       </c>
       <c r="D2">
-        <v>0.02541487974600187</v>
+        <v>0.04424250299868504</v>
       </c>
       <c r="E2">
-        <v>0.109308266228282</v>
+        <v>0.04049465455705104</v>
       </c>
       <c r="F2">
-        <v>0.7337237621416648</v>
+        <v>0.5566330387721905</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6503881080935194</v>
+        <v>0.2908542099855396</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2035184872961509</v>
+        <v>0.1611209155871904</v>
       </c>
       <c r="M2">
-        <v>0.2039161632909838</v>
+        <v>0.3706063034521065</v>
       </c>
       <c r="N2">
-        <v>1.278446630484588</v>
+        <v>0.7377931196995959</v>
       </c>
       <c r="O2">
-        <v>2.510429043626402</v>
+        <v>1.600027315576</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7866008231924866</v>
+        <v>1.842413038649767</v>
       </c>
       <c r="C3">
-        <v>0.2096252353765067</v>
+        <v>0.3765985541873249</v>
       </c>
       <c r="D3">
-        <v>0.02394862812467125</v>
+        <v>0.03996560277223438</v>
       </c>
       <c r="E3">
-        <v>0.110214494987166</v>
+        <v>0.04184083559634066</v>
       </c>
       <c r="F3">
-        <v>0.7287116675615692</v>
+        <v>0.5130226769571706</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6558186271010022</v>
+        <v>0.2893681601007572</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.200750244957085</v>
+        <v>0.1462115655354168</v>
       </c>
       <c r="M3">
-        <v>0.1906489805552596</v>
+        <v>0.3230382554543851</v>
       </c>
       <c r="N3">
-        <v>1.289411023549775</v>
+        <v>0.7612407984661473</v>
       </c>
       <c r="O3">
-        <v>2.507811326002042</v>
+        <v>1.503209613821866</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7363698976323292</v>
+        <v>1.672664154023238</v>
       </c>
       <c r="C4">
-        <v>0.2012869645223532</v>
+        <v>0.3516727049495216</v>
       </c>
       <c r="D4">
-        <v>0.0230406219891961</v>
+        <v>0.03733060621856055</v>
       </c>
       <c r="E4">
-        <v>0.1108039141966617</v>
+        <v>0.04271407091536061</v>
       </c>
       <c r="F4">
-        <v>0.7261286202203507</v>
+        <v>0.4873019451399827</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6595363778698058</v>
+        <v>0.2891900193337413</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.199151163346535</v>
+        <v>0.1372328850145266</v>
       </c>
       <c r="M4">
-        <v>0.1825620133722765</v>
+        <v>0.2939521867636898</v>
       </c>
       <c r="N4">
-        <v>1.296623658830093</v>
+        <v>0.7766196201306528</v>
       </c>
       <c r="O4">
-        <v>2.507846823385449</v>
+        <v>1.4471810275341</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7159241101786051</v>
+        <v>1.603537437485414</v>
       </c>
       <c r="C5">
-        <v>0.1978713240490748</v>
+        <v>0.3414995028371237</v>
       </c>
       <c r="D5">
-        <v>0.02266868007409073</v>
+        <v>0.03625440155252591</v>
       </c>
       <c r="E5">
-        <v>0.1110524143337162</v>
+        <v>0.04308150721208359</v>
       </c>
       <c r="F5">
-        <v>0.7252002856644708</v>
+        <v>0.4770697200608822</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.661147744388888</v>
+        <v>0.2892938179189706</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1985248895985805</v>
+        <v>0.1336153852072002</v>
       </c>
       <c r="M5">
-        <v>0.1792815925659355</v>
+        <v>0.2821252447594489</v>
       </c>
       <c r="N5">
-        <v>1.299683767271183</v>
+        <v>0.7831267288295791</v>
       </c>
       <c r="O5">
-        <v>2.508274158580292</v>
+        <v>1.42515895784291</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7125305743480794</v>
+        <v>1.592061253633119</v>
       </c>
       <c r="C6">
-        <v>0.1973030934987179</v>
+        <v>0.3398092255137755</v>
       </c>
       <c r="D6">
-        <v>0.02260680389476022</v>
+        <v>0.03607554757547859</v>
       </c>
       <c r="E6">
-        <v>0.1110941796437026</v>
+        <v>0.04314321516469843</v>
       </c>
       <c r="F6">
-        <v>0.7250536412816899</v>
+        <v>0.4753852518537727</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6614211284806792</v>
+        <v>0.2893214730961553</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1984224310903286</v>
+        <v>0.1330171223902568</v>
       </c>
       <c r="M6">
-        <v>0.178737798518398</v>
+        <v>0.2801628245698993</v>
       </c>
       <c r="N6">
-        <v>1.300199200698508</v>
+        <v>0.7842215397267083</v>
       </c>
       <c r="O6">
-        <v>2.508370047095752</v>
+        <v>1.421549734030521</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7360940607948976</v>
+        <v>1.67173172279459</v>
       </c>
       <c r="C7">
-        <v>0.2012409715687369</v>
+        <v>0.3515355726691922</v>
       </c>
       <c r="D7">
-        <v>0.02303561360681528</v>
+        <v>0.03731610216838277</v>
       </c>
       <c r="E7">
-        <v>0.1108072319066045</v>
+        <v>0.04271897957472115</v>
       </c>
       <c r="F7">
-        <v>0.7261155972353777</v>
+        <v>0.4871629619655522</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6595577192648321</v>
+        <v>0.2891907156219702</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1991426144173829</v>
+        <v>0.1371839341819694</v>
       </c>
       <c r="M7">
-        <v>0.182517711112304</v>
+        <v>0.2937925855658676</v>
       </c>
       <c r="N7">
-        <v>1.296664438882374</v>
+        <v>0.776706413770512</v>
       </c>
       <c r="O7">
-        <v>2.507850915182161</v>
+        <v>1.446880813986638</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8402792903085015</v>
+        <v>2.023772883741913</v>
       </c>
       <c r="C8">
-        <v>0.2184619098920848</v>
+        <v>0.4031506053832175</v>
       </c>
       <c r="D8">
-        <v>0.02491093020729096</v>
+        <v>0.04276958207461234</v>
       </c>
       <c r="E8">
-        <v>0.1096138933733015</v>
+        <v>0.04094903828452923</v>
       </c>
       <c r="F8">
-        <v>0.7318929501761033</v>
+        <v>0.5413668369923386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.652180945883778</v>
+        <v>0.2901843291214625</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2025431465323422</v>
+        <v>0.1559419681828871</v>
       </c>
       <c r="M8">
-        <v>0.1993294885757209</v>
+        <v>0.3541769249436868</v>
       </c>
       <c r="N8">
-        <v>1.282127486823967</v>
+        <v>0.7456699134721276</v>
       </c>
       <c r="O8">
-        <v>2.509185352070716</v>
+        <v>1.565904677273153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.045245462869218</v>
+        <v>2.717362151004181</v>
       </c>
       <c r="C9">
-        <v>0.2516623280739623</v>
+        <v>0.5040928720745512</v>
       </c>
       <c r="D9">
-        <v>0.02852644670915794</v>
+        <v>0.05340135367818988</v>
       </c>
       <c r="E9">
-        <v>0.1075350074939019</v>
+        <v>0.03785549137126099</v>
       </c>
       <c r="F9">
-        <v>0.7471488321144477</v>
+        <v>0.6568258718545081</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6407597876439617</v>
+        <v>0.298351009699509</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2100079451872432</v>
+        <v>0.1942556875863133</v>
       </c>
       <c r="M9">
-        <v>0.232758920931019</v>
+        <v>0.4737726837907701</v>
       </c>
       <c r="N9">
-        <v>1.257428932265874</v>
+        <v>0.692919128397449</v>
       </c>
       <c r="O9">
-        <v>2.524851093627717</v>
+        <v>1.82879083389227</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.196186840197299</v>
+        <v>3.23054560259834</v>
       </c>
       <c r="C10">
-        <v>0.2757021534020225</v>
+        <v>0.5782981748347709</v>
       </c>
       <c r="D10">
-        <v>0.03114427024932809</v>
+        <v>0.0611879471619261</v>
       </c>
       <c r="E10">
-        <v>0.1061661635196636</v>
+        <v>0.03582258908119407</v>
       </c>
       <c r="F10">
-        <v>0.7607586634862429</v>
+        <v>0.7484021956844202</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6342287566908027</v>
+        <v>0.3087175185646984</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2159758550654374</v>
+        <v>0.2235380823842803</v>
       </c>
       <c r="M10">
-        <v>0.2575932380129018</v>
+        <v>0.5626983794021143</v>
       </c>
       <c r="N10">
-        <v>1.241599453196422</v>
+        <v>0.6595782776246324</v>
       </c>
       <c r="O10">
-        <v>2.544341185788795</v>
+        <v>2.043396599101811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.264921059430606</v>
+        <v>3.465181315159668</v>
       </c>
       <c r="C11">
-        <v>0.286560978408005</v>
+        <v>0.6121168380574318</v>
       </c>
       <c r="D11">
-        <v>0.03232668827934049</v>
+        <v>0.06472820028789528</v>
       </c>
       <c r="E11">
-        <v>0.1055777004257195</v>
+        <v>0.03495215382004391</v>
       </c>
       <c r="F11">
-        <v>0.7674733401018301</v>
+        <v>0.7918037801487969</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.631662408623292</v>
+        <v>0.3145179454490048</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2187954406617791</v>
+        <v>0.2371532302565811</v>
       </c>
       <c r="M11">
-        <v>0.2689489737203345</v>
+        <v>0.6034639527299319</v>
       </c>
       <c r="N11">
-        <v>1.23490022420436</v>
+        <v>0.6456978790059651</v>
       </c>
       <c r="O11">
-        <v>2.554946461127315</v>
+        <v>2.146516859850067</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.290957879754217</v>
+        <v>3.55423663064613</v>
       </c>
       <c r="C12">
-        <v>0.2906617261313045</v>
+        <v>0.6249365744232307</v>
       </c>
       <c r="D12">
-        <v>0.03277320792176397</v>
+        <v>0.06606880384567404</v>
       </c>
       <c r="E12">
-        <v>0.1053597756810354</v>
+        <v>0.03463056118382779</v>
       </c>
       <c r="F12">
-        <v>0.7700913820657149</v>
+        <v>0.8085140299411648</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.630748857932744</v>
+        <v>0.3168825781758358</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2198781590974477</v>
+        <v>0.2423554825996206</v>
       </c>
       <c r="M12">
-        <v>0.2732573227626105</v>
+        <v>0.6189529053801408</v>
       </c>
       <c r="N12">
-        <v>1.232435478975688</v>
+        <v>0.6406367724390023</v>
       </c>
       <c r="O12">
-        <v>2.559212844790693</v>
+        <v>2.186430115481784</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285350022180467</v>
+        <v>3.535047349977333</v>
       </c>
       <c r="C13">
-        <v>0.2897790601004999</v>
+        <v>0.6221749475092224</v>
       </c>
       <c r="D13">
-        <v>0.03267709727235513</v>
+        <v>0.06578007711627976</v>
       </c>
       <c r="E13">
-        <v>0.1054064912877699</v>
+        <v>0.03469946169303295</v>
       </c>
       <c r="F13">
-        <v>0.7695241881705073</v>
+        <v>0.8049025411886674</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.630943014569695</v>
+        <v>0.3163656316390373</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2196443100371823</v>
+        <v>0.2412329475898929</v>
       </c>
       <c r="M13">
-        <v>0.2723290826513747</v>
+        <v>0.6156146574602843</v>
       </c>
       <c r="N13">
-        <v>1.232963099458026</v>
+        <v>0.6417179272581848</v>
       </c>
       <c r="O13">
-        <v>2.558282861389756</v>
+        <v>2.177794432549831</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.2670629589025</v>
+        <v>3.47250366379825</v>
       </c>
       <c r="C14">
-        <v>0.2868985759581335</v>
+        <v>0.6131712316083906</v>
       </c>
       <c r="D14">
-        <v>0.03236344862622076</v>
+        <v>0.06483849125489627</v>
       </c>
       <c r="E14">
-        <v>0.1055596732035537</v>
+        <v>0.03492553419238131</v>
       </c>
       <c r="F14">
-        <v>0.7676872177237328</v>
+        <v>0.7931728851743856</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6315860819830732</v>
+        <v>0.3147090428430559</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2188842162344287</v>
+        <v>0.2375802661331647</v>
       </c>
       <c r="M14">
-        <v>0.2693032616048328</v>
+        <v>0.6047371561938135</v>
       </c>
       <c r="N14">
-        <v>1.234696003169667</v>
+        <v>0.645277528423172</v>
       </c>
       <c r="O14">
-        <v>2.555292439001533</v>
+        <v>2.149782793920764</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.255862690243362</v>
+        <v>3.434221431885931</v>
       </c>
       <c r="C15">
-        <v>0.2851327253683564</v>
+        <v>0.6076580698346277</v>
       </c>
       <c r="D15">
-        <v>0.0321711680962764</v>
+        <v>0.06426174905151072</v>
       </c>
       <c r="E15">
-        <v>0.1056541411641403</v>
+        <v>0.03506506121964925</v>
       </c>
       <c r="F15">
-        <v>0.7665718335318275</v>
+        <v>0.786024698958002</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6319875701771807</v>
+        <v>0.3137166059898675</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2184205888016493</v>
+        <v>0.2353490758957122</v>
       </c>
       <c r="M15">
-        <v>0.2674509170577295</v>
+        <v>0.5980813479252305</v>
       </c>
       <c r="N15">
-        <v>1.235766846310753</v>
+        <v>0.647483605674104</v>
       </c>
       <c r="O15">
-        <v>2.553493337063315</v>
+        <v>2.132739630871015</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.191696187753791</v>
+        <v>3.215238262518426</v>
       </c>
       <c r="C16">
-        <v>0.2749909386332092</v>
+        <v>0.5760896654922192</v>
       </c>
       <c r="D16">
-        <v>0.03106682464795796</v>
+        <v>0.06095656676140493</v>
       </c>
       <c r="E16">
-        <v>0.1062053090173367</v>
+        <v>0.03588058511603442</v>
       </c>
       <c r="F16">
-        <v>0.7603303829543506</v>
+        <v>0.7456029190757647</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6344046231387281</v>
+        <v>0.3083612942693676</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2157936912236238</v>
+        <v>0.2226545737658938</v>
       </c>
       <c r="M16">
-        <v>0.2568522710005468</v>
+        <v>0.5600411290278231</v>
       </c>
       <c r="N16">
-        <v>1.242047355693195</v>
+        <v>0.6605121307278168</v>
       </c>
       <c r="O16">
-        <v>2.54368312856522</v>
+        <v>2.036774202107409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.152349082234025</v>
+        <v>3.081225854664524</v>
       </c>
       <c r="C17">
-        <v>0.2687494286350045</v>
+        <v>0.5567424303715711</v>
       </c>
       <c r="D17">
-        <v>0.03038716738265634</v>
+        <v>0.05892863539846616</v>
       </c>
       <c r="E17">
-        <v>0.1065521936406091</v>
+        <v>0.03639494565301105</v>
       </c>
       <c r="F17">
-        <v>0.7566355793734374</v>
+        <v>0.7212687137615319</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6359911055545311</v>
+        <v>0.3053621892736551</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2142089612491276</v>
+        <v>0.2149451864486736</v>
       </c>
       <c r="M17">
-        <v>0.2503651587297782</v>
+        <v>0.5367895812735384</v>
       </c>
       <c r="N17">
-        <v>1.246028711977097</v>
+        <v>0.6688411976565121</v>
       </c>
       <c r="O17">
-        <v>2.538110539547205</v>
+        <v>1.979360740307101</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.129724363879916</v>
+        <v>3.004254950715335</v>
       </c>
       <c r="C18">
-        <v>0.2651522391388994</v>
+        <v>0.5456199921582368</v>
       </c>
       <c r="D18">
-        <v>0.02999545313528529</v>
+        <v>0.05776202662981689</v>
       </c>
       <c r="E18">
-        <v>0.1067549350036607</v>
+        <v>0.03669589412204122</v>
       </c>
       <c r="F18">
-        <v>0.7545596964181556</v>
+        <v>0.7074348317298274</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6369416910655836</v>
+        <v>0.3037385003615043</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2133073300192905</v>
+        <v>0.2105383999813597</v>
       </c>
       <c r="M18">
-        <v>0.2466394615732526</v>
+        <v>0.5234449063834319</v>
       </c>
       <c r="N18">
-        <v>1.248365905097586</v>
+        <v>0.6737523073600187</v>
       </c>
       <c r="O18">
-        <v>2.535069010940475</v>
+        <v>1.946850546294428</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.122065216821341</v>
+        <v>2.978211755827772</v>
       </c>
       <c r="C19">
-        <v>0.2639330549136218</v>
+        <v>0.5418549565011688</v>
       </c>
       <c r="D19">
-        <v>0.02986268984016505</v>
+        <v>0.05736699160531344</v>
       </c>
       <c r="E19">
-        <v>0.1068241334857567</v>
+        <v>0.03679866018991529</v>
       </c>
       <c r="F19">
-        <v>0.7538652984473799</v>
+        <v>0.7027781129989563</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6372700812599987</v>
+        <v>0.3032057910459187</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2130037491013752</v>
+        <v>0.2090509303124293</v>
       </c>
       <c r="M19">
-        <v>0.2453789593374651</v>
+        <v>0.5189314067057467</v>
       </c>
       <c r="N19">
-        <v>1.249165350095545</v>
+        <v>0.6754355151911255</v>
       </c>
       <c r="O19">
-        <v>2.534067303822553</v>
+        <v>1.935929015862257</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.156536966175679</v>
+        <v>3.095480139324366</v>
       </c>
       <c r="C20">
-        <v>0.2694145984398801</v>
+        <v>0.5588013685356827</v>
       </c>
       <c r="D20">
-        <v>0.03045960033050932</v>
+        <v>0.05914453064212921</v>
       </c>
       <c r="E20">
-        <v>0.1065149337281905</v>
+        <v>0.0363396615962186</v>
       </c>
       <c r="F20">
-        <v>0.7570237977754317</v>
+        <v>0.7238421412494489</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6358182797765366</v>
+        <v>0.3056708776830277</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2143766380621912</v>
+        <v>0.2157629938280081</v>
       </c>
       <c r="M20">
-        <v>0.2510551534617491</v>
+        <v>0.5392616982165919</v>
       </c>
       <c r="N20">
-        <v>1.245600002728906</v>
+        <v>0.6679420170146955</v>
       </c>
       <c r="O20">
-        <v>2.538686808921</v>
+        <v>1.985418941131456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.272434088987893</v>
+        <v>3.490868449362154</v>
       </c>
       <c r="C21">
-        <v>0.2877449508236225</v>
+        <v>0.615815442274112</v>
       </c>
       <c r="D21">
-        <v>0.03245560857021701</v>
+        <v>0.06511505603489809</v>
       </c>
       <c r="E21">
-        <v>0.1055145466824579</v>
+        <v>0.03485891178613976</v>
       </c>
       <c r="F21">
-        <v>0.7682247352931455</v>
+        <v>0.7966105030860859</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6313956154276283</v>
+        <v>0.3151909588515522</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2191070675295066</v>
+        <v>0.2386518509503901</v>
       </c>
       <c r="M21">
-        <v>0.2701917984747695</v>
+        <v>0.607930675230854</v>
       </c>
       <c r="N21">
-        <v>1.234185050617974</v>
+        <v>0.6442266085434838</v>
       </c>
       <c r="O21">
-        <v>2.556164000409353</v>
+        <v>2.157986433399941</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.348229389395158</v>
+        <v>3.750483188917144</v>
       </c>
       <c r="C22">
-        <v>0.2996592177676121</v>
+        <v>0.6531575206319928</v>
       </c>
       <c r="D22">
-        <v>0.03375289826920636</v>
+        <v>0.06901719655108707</v>
       </c>
       <c r="E22">
-        <v>0.1048893712229622</v>
+        <v>0.03393802057473572</v>
       </c>
       <c r="F22">
-        <v>0.7759843601248235</v>
+        <v>0.8457843733506536</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6288448261447783</v>
+        <v>0.3223991693924546</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.222286094750217</v>
+        <v>0.2538841656764816</v>
       </c>
       <c r="M22">
-        <v>0.282746264992241</v>
+        <v>0.6531160160874663</v>
       </c>
       <c r="N22">
-        <v>1.227145003812211</v>
+        <v>0.6298695789483659</v>
       </c>
       <c r="O22">
-        <v>2.56904599706175</v>
+        <v>2.275842479247302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.307771925502948</v>
+        <v>3.611799910784214</v>
       </c>
       <c r="C23">
-        <v>0.2933064180544136</v>
+        <v>0.6332184732042094</v>
       </c>
       <c r="D23">
-        <v>0.03306117807768771</v>
+        <v>0.06693445408561161</v>
       </c>
       <c r="E23">
-        <v>0.1052204219239301</v>
+        <v>0.03442515793846512</v>
       </c>
       <c r="F23">
-        <v>0.7718026987781172</v>
+        <v>0.8193830288927302</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6301751230646175</v>
+        <v>0.3184575263653358</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2205814094639464</v>
+        <v>0.2457279543820476</v>
       </c>
       <c r="M23">
-        <v>0.2760414342385431</v>
+        <v>0.628969305436577</v>
       </c>
       <c r="N23">
-        <v>1.230863963343104</v>
+        <v>0.637424156842755</v>
       </c>
       <c r="O23">
-        <v>2.562036973912967</v>
+        <v>2.212450561707158</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.154643634773265</v>
+        <v>3.089035547310004</v>
       </c>
       <c r="C24">
-        <v>0.2691139027631664</v>
+        <v>0.5578705212209343</v>
       </c>
       <c r="D24">
-        <v>0.0304268564146426</v>
+        <v>0.05904692667716205</v>
       </c>
       <c r="E24">
-        <v>0.1065317686150977</v>
+        <v>0.03636463922575039</v>
       </c>
       <c r="F24">
-        <v>0.756848133761693</v>
+        <v>0.7226782100484286</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6358962944045921</v>
+        <v>0.3055310074146078</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2143008019317705</v>
+        <v>0.2153931841730952</v>
       </c>
       <c r="M24">
-        <v>0.2507431948957617</v>
+        <v>0.5381439831813495</v>
       </c>
       <c r="N24">
-        <v>1.245793671854045</v>
+        <v>0.6683481554107189</v>
       </c>
       <c r="O24">
-        <v>2.538425772231363</v>
+        <v>1.982678484228558</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9897311952613563</v>
+        <v>2.529219827542477</v>
       </c>
       <c r="C25">
-        <v>0.2427422693873211</v>
+        <v>0.4767939722018184</v>
       </c>
       <c r="D25">
-        <v>0.02755506235203597</v>
+        <v>0.05053052577355288</v>
       </c>
       <c r="E25">
-        <v>0.1080695106551994</v>
+        <v>0.0386509895131768</v>
       </c>
       <c r="F25">
-        <v>0.7426005586038187</v>
+        <v>0.6244944332095912</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6435231486489705</v>
+        <v>0.29541870348298</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2079034657320875</v>
+        <v>0.183707087374458</v>
       </c>
       <c r="M25">
-        <v>0.2236667525887981</v>
+        <v>0.4412587663603134</v>
       </c>
       <c r="N25">
-        <v>1.263703380562539</v>
+        <v>0.7062744783486821</v>
       </c>
       <c r="O25">
-        <v>2.519213474105385</v>
+        <v>1.754169989527185</v>
       </c>
     </row>
   </sheetData>
